--- a/Output_data/scram_loss_feats_RFECV.xlsx
+++ b/Output_data/scram_loss_feats_RFECV.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>feat</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Dh_functionalized</t>
+  </si>
+  <si>
+    <t>NP_incubation Concentration (mg/mL)</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,10 +435,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.656927149341263</v>
+        <v>0.6389872355837201</v>
       </c>
       <c r="D2">
-        <v>61.21901469912985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -446,10 +449,10 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>-0.9096373997109757</v>
+        <v>-0.7868771669056187</v>
       </c>
       <c r="D3">
-        <v>3.968043233614056</v>
+        <v>61.35875894829685</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -460,10 +463,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0.4850136321482906</v>
+        <v>0.4765274912498819</v>
       </c>
       <c r="D4">
-        <v>3.099796471265557</v>
+        <v>3.539790619544031</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -474,10 +477,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.6047391798338484</v>
+        <v>0.5981626139410883</v>
       </c>
       <c r="D5">
-        <v>3.576778176950583</v>
+        <v>2.551261415002377</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -488,10 +491,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0.6384127793451921</v>
+        <v>0.5870731680754302</v>
       </c>
       <c r="D6">
-        <v>2.563489285790477</v>
+        <v>4.19520554511559</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -502,10 +505,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.5461479867846676</v>
+        <v>0.5620547403671418</v>
       </c>
       <c r="D7">
-        <v>1.884242625120117</v>
+        <v>2.647492674317471</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -516,10 +519,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>0.6098364106055458</v>
+        <v>0.5995260410612524</v>
       </c>
       <c r="D8">
-        <v>4.021257977181817</v>
+        <v>2.08734404593266</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -530,10 +533,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0.579060869530478</v>
+        <v>0.4937239777967523</v>
       </c>
       <c r="D9">
-        <v>8.457588804785839</v>
+        <v>4.06942850673332</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -544,10 +547,24 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>0.5485060138393141</v>
+        <v>0.4462461032289393</v>
       </c>
       <c r="D10">
-        <v>11.2097887261617</v>
+        <v>7.880109977251994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>0.5851445753972768</v>
+      </c>
+      <c r="D11">
+        <v>11.67060826780572</v>
       </c>
     </row>
   </sheetData>
